--- a/df.xlsx
+++ b/df.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Active cases</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -518,15 +518,33 @@
       <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -546,15 +564,33 @@
       <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -574,15 +610,33 @@
       <c r="E4" t="n">
         <v>2</v>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -602,15 +656,33 @@
       <c r="E5" t="n">
         <v>2</v>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -630,15 +702,33 @@
       <c r="E6" t="n">
         <v>2</v>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -658,15 +748,33 @@
       <c r="E7" t="n">
         <v>2</v>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -686,15 +794,33 @@
       <c r="E8" t="n">
         <v>2</v>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -714,15 +840,33 @@
       <c r="E9" t="n">
         <v>2</v>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -742,15 +886,33 @@
       <c r="E10" t="n">
         <v>2</v>
       </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -770,15 +932,33 @@
       <c r="E11" t="n">
         <v>2</v>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -798,15 +978,33 @@
       <c r="E12" t="n">
         <v>2</v>
       </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -826,15 +1024,33 @@
       <c r="E13" t="n">
         <v>2</v>
       </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -854,15 +1070,33 @@
       <c r="E14" t="n">
         <v>2</v>
       </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -882,15 +1116,33 @@
       <c r="E15" t="n">
         <v>2</v>
       </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,15 +1162,33 @@
       <c r="E16" t="n">
         <v>2</v>
       </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -938,15 +1208,33 @@
       <c r="E17" t="n">
         <v>2</v>
       </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -966,15 +1254,33 @@
       <c r="E18" t="n">
         <v>2</v>
       </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -994,15 +1300,33 @@
       <c r="E19" t="n">
         <v>3</v>
       </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1022,15 +1346,33 @@
       <c r="E20" t="n">
         <v>3</v>
       </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1050,15 +1392,33 @@
       <c r="E21" t="n">
         <v>3</v>
       </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1078,15 +1438,33 @@
       <c r="E22" t="n">
         <v>4</v>
       </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1106,15 +1484,33 @@
       <c r="E23" t="n">
         <v>5</v>
       </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1134,15 +1530,33 @@
       <c r="E24" t="n">
         <v>17</v>
       </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1162,15 +1576,33 @@
       <c r="E25" t="n">
         <v>19</v>
       </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1190,15 +1622,33 @@
       <c r="E26" t="n">
         <v>19</v>
       </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1218,15 +1668,33 @@
       <c r="E27" t="n">
         <v>21</v>
       </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1246,15 +1714,33 @@
       <c r="E28" t="n">
         <v>25</v>
       </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1274,15 +1760,33 @@
       <c r="E29" t="n">
         <v>27</v>
       </c>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1302,15 +1806,33 @@
       <c r="E30" t="n">
         <v>28</v>
       </c>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1330,15 +1852,33 @@
       <c r="E31" t="n">
         <v>34</v>
       </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1358,15 +1898,33 @@
       <c r="E32" t="n">
         <v>35</v>
       </c>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1386,15 +1944,33 @@
       <c r="E33" t="n">
         <v>41</v>
       </c>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1414,15 +1990,33 @@
       <c r="E34" t="n">
         <v>58</v>
       </c>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1442,15 +2036,33 @@
       <c r="E35" t="n">
         <v>78</v>
       </c>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1470,15 +2082,33 @@
       <c r="E36" t="n">
         <v>102</v>
       </c>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1498,15 +2128,33 @@
       <c r="E37" t="n">
         <v>144</v>
       </c>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1526,15 +2174,33 @@
       <c r="E38" t="n">
         <v>176</v>
       </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1554,15 +2220,33 @@
       <c r="E39" t="n">
         <v>188</v>
       </c>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1585,14 +2269,30 @@
       <c r="F40" t="n">
         <v>0</v>
       </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1615,16 +2315,30 @@
       <c r="F41" t="n">
         <v>1</v>
       </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
       <c r="I41" t="n">
         <v>3.01</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1647,16 +2361,30 @@
       <c r="F42" t="n">
         <v>0</v>
       </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
       <c r="I42" t="n">
         <v>2.75</v>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1679,16 +2407,30 @@
       <c r="F43" t="n">
         <v>0</v>
       </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
       <c r="I43" t="n">
         <v>2.58</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1711,16 +2453,30 @@
       <c r="F44" t="n">
         <v>3</v>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
       <c r="I44" t="n">
         <v>2.39</v>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1743,16 +2499,30 @@
       <c r="F45" t="n">
         <v>1</v>
       </c>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
       <c r="I45" t="n">
         <v>2.27</v>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1775,16 +2545,30 @@
       <c r="F46" t="n">
         <v>2</v>
       </c>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
       <c r="I46" t="n">
         <v>1.99</v>
       </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1807,16 +2591,30 @@
       <c r="F47" t="n">
         <v>5</v>
       </c>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
       <c r="I47" t="n">
         <v>1.89</v>
       </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1839,16 +2637,30 @@
       <c r="F48" t="n">
         <v>2</v>
       </c>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
       <c r="I48" t="n">
         <v>1.88</v>
       </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1871,16 +2683,30 @@
       <c r="F49" t="n">
         <v>3</v>
       </c>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
       <c r="I49" t="n">
         <v>1.81</v>
       </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1903,16 +2729,30 @@
       <c r="F50" t="n">
         <v>1</v>
       </c>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
       <c r="I50" t="n">
         <v>1.76</v>
       </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1935,16 +2775,30 @@
       <c r="F51" t="n">
         <v>4</v>
       </c>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
       <c r="I51" t="n">
         <v>1.69</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1967,16 +2821,30 @@
       <c r="F52" t="n">
         <v>0</v>
       </c>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
       <c r="I52" t="n">
         <v>1.55</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1999,16 +2867,30 @@
       <c r="F53" t="n">
         <v>10</v>
       </c>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
       <c r="I53" t="n">
         <v>1.53</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2031,16 +2913,30 @@
       <c r="F54" t="n">
         <v>4</v>
       </c>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
       <c r="I54" t="n">
         <v>1.55</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2072,11 +2968,21 @@
       <c r="I55" t="n">
         <v>1.52</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2108,11 +3014,21 @@
       <c r="I56" t="n">
         <v>1.54</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2144,11 +3060,21 @@
       <c r="I57" t="n">
         <v>1.48</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2180,11 +3106,21 @@
       <c r="I58" t="n">
         <v>1.46</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2216,11 +3152,21 @@
       <c r="I59" t="n">
         <v>1.39</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2252,11 +3198,21 @@
       <c r="I60" t="n">
         <v>1.36</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2288,11 +3244,21 @@
       <c r="I61" t="n">
         <v>1.35</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2324,11 +3290,21 @@
       <c r="I62" t="n">
         <v>1.32</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2360,11 +3336,21 @@
       <c r="I63" t="n">
         <v>1.25</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2396,11 +3382,21 @@
       <c r="I64" t="n">
         <v>1.21</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2432,11 +3428,21 @@
       <c r="I65" t="n">
         <v>1.16</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2468,11 +3474,21 @@
       <c r="I66" t="n">
         <v>1.16</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2504,11 +3520,21 @@
       <c r="I67" t="n">
         <v>1.17</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2540,13 +3566,21 @@
       <c r="I68" t="n">
         <v>1.12</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="n">
         <v>6010</v>
       </c>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2578,13 +3612,21 @@
       <c r="I69" t="n">
         <v>1.11</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="n">
         <v>9001</v>
       </c>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2616,13 +3658,21 @@
       <c r="I70" t="n">
         <v>1.14</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="n">
         <v>8899</v>
       </c>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2654,13 +3704,21 @@
       <c r="I71" t="n">
         <v>1.14</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="n">
         <v>9462</v>
       </c>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2698,9 +3756,15 @@
       <c r="K72" t="n">
         <v>9643</v>
       </c>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2738,9 +3802,15 @@
       <c r="K73" t="n">
         <v>8743</v>
       </c>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2778,9 +3848,15 @@
       <c r="K74" t="n">
         <v>9330</v>
       </c>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2818,9 +3894,15 @@
       <c r="K75" t="n">
         <v>10361</v>
       </c>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2858,9 +3940,15 @@
       <c r="K76" t="n">
         <v>10214</v>
       </c>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2898,9 +3986,15 @@
       <c r="K77" t="n">
         <v>12295</v>
       </c>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2938,9 +4032,15 @@
       <c r="K78" t="n">
         <v>10578</v>
       </c>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2978,9 +4078,15 @@
       <c r="K79" t="n">
         <v>12020</v>
       </c>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3018,9 +4124,15 @@
       <c r="K80" t="n">
         <v>12550</v>
       </c>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3058,9 +4170,15 @@
       <c r="K81" t="n">
         <v>10852</v>
       </c>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3098,9 +4216,15 @@
       <c r="K82" t="n">
         <v>11554</v>
       </c>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3138,9 +4262,15 @@
       <c r="K83" t="n">
         <v>12928</v>
       </c>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3178,9 +4308,15 @@
       <c r="K84" t="n">
         <v>16532</v>
       </c>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3218,9 +4354,15 @@
       <c r="K85" t="n">
         <v>16305</v>
       </c>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3258,9 +4400,15 @@
       <c r="K86" t="n">
         <v>17146</v>
       </c>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3298,9 +4446,15 @@
       <c r="K87" t="n">
         <v>14555</v>
       </c>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3338,9 +4492,15 @@
       <c r="K88" t="n">
         <v>10654</v>
       </c>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3378,9 +4538,15 @@
       <c r="K89" t="n">
         <v>12961</v>
       </c>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3418,9 +4584,15 @@
       <c r="K90" t="n">
         <v>15179</v>
       </c>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3458,9 +4630,15 @@
       <c r="K91" t="n">
         <v>16295</v>
       </c>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3498,9 +4676,15 @@
       <c r="K92" t="n">
         <v>19227</v>
       </c>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3538,9 +4722,15 @@
       <c r="K93" t="n">
         <v>17618</v>
       </c>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3578,9 +4768,15 @@
       <c r="K94" t="n">
         <v>13970</v>
       </c>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3618,9 +4814,15 @@
       <c r="K95" t="n">
         <v>11957</v>
       </c>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3658,9 +4860,15 @@
       <c r="K96" t="n">
         <v>15137</v>
       </c>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3698,9 +4906,15 @@
       <c r="K97" t="n">
         <v>17429</v>
       </c>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3738,9 +4952,15 @@
       <c r="K98" t="n">
         <v>18354</v>
       </c>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3778,9 +4998,15 @@
       <c r="K99" t="n">
         <v>17768</v>
       </c>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3818,9 +5044,15 @@
       <c r="K100" t="n">
         <v>16217</v>
       </c>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3858,9 +5090,15 @@
       <c r="K101" t="n">
         <v>9155</v>
       </c>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3898,9 +5136,15 @@
       <c r="K102" t="n">
         <v>5813</v>
       </c>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>0</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3938,9 +5182,15 @@
       <c r="K103" t="n">
         <v>7382</v>
       </c>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>0</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3978,9 +5228,15 @@
       <c r="K104" t="n">
         <v>10506</v>
       </c>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>0</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4018,9 +5274,15 @@
       <c r="K105" t="n">
         <v>11276</v>
       </c>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>0</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4058,9 +5320,15 @@
       <c r="K106" t="n">
         <v>11028</v>
       </c>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>0</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4098,9 +5366,15 @@
       <c r="K107" t="n">
         <v>11383</v>
       </c>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4138,9 +5412,15 @@
       <c r="K108" t="n">
         <v>8170</v>
       </c>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>0</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4178,9 +5458,15 @@
       <c r="K109" t="n">
         <v>9875</v>
       </c>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>0</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4218,9 +5504,15 @@
       <c r="K110" t="n">
         <v>15133</v>
       </c>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>0</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4258,9 +5550,15 @@
       <c r="K111" t="n">
         <v>17615</v>
       </c>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>0</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4298,9 +5596,15 @@
       <c r="K112" t="n">
         <v>18525</v>
       </c>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>0</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4338,9 +5642,15 @@
       <c r="K113" t="n">
         <v>20640</v>
       </c>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>0</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4378,9 +5688,15 @@
       <c r="K114" t="n">
         <v>17014</v>
       </c>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>0</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4418,9 +5734,15 @@
       <c r="K115" t="n">
         <v>14379</v>
       </c>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>0</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4458,9 +5780,15 @@
       <c r="K116" t="n">
         <v>15244</v>
       </c>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>0</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4498,9 +5826,15 @@
       <c r="K117" t="n">
         <v>17537</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4538,9 +5872,15 @@
       <c r="K118" t="n">
         <v>20822</v>
       </c>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>0</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4578,9 +5918,15 @@
       <c r="K119" t="n">
         <v>22730</v>
       </c>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4618,9 +5964,15 @@
       <c r="K120" t="n">
         <v>23105</v>
       </c>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>0</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4658,9 +6010,15 @@
       <c r="K121" t="n">
         <v>19374</v>
       </c>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>0</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4698,9 +6056,15 @@
       <c r="K122" t="n">
         <v>15357</v>
       </c>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>0</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4738,9 +6102,15 @@
       <c r="K123" t="n">
         <v>13509</v>
       </c>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>0</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4778,9 +6148,15 @@
       <c r="K124" t="n">
         <v>19941</v>
       </c>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4818,9 +6194,15 @@
       <c r="K125" t="n">
         <v>24341</v>
       </c>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4858,9 +6240,15 @@
       <c r="K126" t="n">
         <v>28335</v>
       </c>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4898,9 +6286,15 @@
       <c r="K127" t="n">
         <v>27456</v>
       </c>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4938,9 +6332,15 @@
       <c r="K128" t="n">
         <v>23278</v>
       </c>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>0</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4978,9 +6378,15 @@
       <c r="K129" t="n">
         <v>21751</v>
       </c>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>0</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5018,9 +6424,15 @@
       <c r="K130" t="n">
         <v>21724</v>
       </c>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5058,9 +6470,15 @@
       <c r="K131" t="n">
         <v>24205</v>
       </c>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5098,9 +6516,15 @@
       <c r="K132" t="n">
         <v>25278</v>
       </c>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr"/>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5138,9 +6562,15 @@
       <c r="K133" t="n">
         <v>27225</v>
       </c>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr"/>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>0</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5178,9 +6608,15 @@
       <c r="K134" t="n">
         <v>27387</v>
       </c>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr"/>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>0</v>
+      </c>
+      <c r="M134" t="n">
+        <v>0</v>
+      </c>
+      <c r="N134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5218,9 +6654,15 @@
       <c r="K135" t="n">
         <v>23408</v>
       </c>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr"/>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M135" t="n">
+        <v>0</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5258,9 +6700,15 @@
       <c r="K136" t="n">
         <v>21900</v>
       </c>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr"/>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>0</v>
+      </c>
+      <c r="M136" t="n">
+        <v>0</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5298,9 +6746,15 @@
       <c r="K137" t="n">
         <v>16189</v>
       </c>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr"/>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>0</v>
+      </c>
+      <c r="M137" t="n">
+        <v>0</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5338,9 +6792,15 @@
       <c r="K138" t="n">
         <v>23207</v>
       </c>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr"/>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>0</v>
+      </c>
+      <c r="M138" t="n">
+        <v>0</v>
+      </c>
+      <c r="N138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5378,9 +6838,15 @@
       <c r="K139" t="n">
         <v>27511</v>
       </c>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr"/>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>0</v>
+      </c>
+      <c r="M139" t="n">
+        <v>0</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5418,9 +6884,15 @@
       <c r="K140" t="n">
         <v>30780</v>
       </c>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="inlineStr"/>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>0</v>
+      </c>
+      <c r="M140" t="n">
+        <v>0</v>
+      </c>
+      <c r="N140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5458,9 +6930,15 @@
       <c r="K141" t="n">
         <v>33492</v>
       </c>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr"/>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>0</v>
+      </c>
+      <c r="M141" t="n">
+        <v>0</v>
+      </c>
+      <c r="N141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,9 +6976,15 @@
       <c r="K142" t="n">
         <v>28633</v>
       </c>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="inlineStr"/>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>0</v>
+      </c>
+      <c r="M142" t="n">
+        <v>0</v>
+      </c>
+      <c r="N142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5538,9 +7022,15 @@
       <c r="K143" t="n">
         <v>27127</v>
       </c>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="inlineStr"/>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>0</v>
+      </c>
+      <c r="M143" t="n">
+        <v>0</v>
+      </c>
+      <c r="N143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5578,9 +7068,15 @@
       <c r="K144" t="n">
         <v>23759</v>
       </c>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr"/>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5618,9 +7114,15 @@
       <c r="K145" t="n">
         <v>26056</v>
       </c>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="inlineStr"/>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>0</v>
+      </c>
+      <c r="M145" t="n">
+        <v>0</v>
+      </c>
+      <c r="N145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5658,9 +7160,15 @@
       <c r="K146" t="n">
         <v>24322</v>
       </c>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="inlineStr"/>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>0</v>
+      </c>
+      <c r="M146" t="n">
+        <v>0</v>
+      </c>
+      <c r="N146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5698,9 +7206,15 @@
       <c r="K147" t="n">
         <v>24194</v>
       </c>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="inlineStr"/>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>0</v>
+      </c>
+      <c r="M147" t="n">
+        <v>0</v>
+      </c>
+      <c r="N147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5738,9 +7252,15 @@
       <c r="K148" t="n">
         <v>21425</v>
       </c>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="inlineStr"/>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5778,9 +7298,15 @@
       <c r="K149" t="n">
         <v>23792</v>
       </c>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="inlineStr"/>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5818,9 +7344,15 @@
       <c r="K150" t="n">
         <v>17303</v>
       </c>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="inlineStr"/>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5858,9 +7390,15 @@
       <c r="K151" t="n">
         <v>15112</v>
       </c>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="inlineStr"/>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5898,9 +7436,15 @@
       <c r="K152" t="n">
         <v>22832</v>
       </c>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="inlineStr"/>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5938,9 +7482,15 @@
       <c r="K153" t="n">
         <v>26326</v>
       </c>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="inlineStr"/>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5978,9 +7528,15 @@
       <c r="K154" t="n">
         <v>27484</v>
       </c>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="inlineStr"/>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>0</v>
+      </c>
+      <c r="M154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6018,9 +7574,15 @@
       <c r="K155" t="n">
         <v>29522</v>
       </c>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="inlineStr"/>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6058,9 +7620,15 @@
       <c r="K156" t="n">
         <v>25726</v>
       </c>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="inlineStr"/>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>0</v>
+      </c>
+      <c r="M156" t="n">
+        <v>0</v>
+      </c>
+      <c r="N156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6098,9 +7666,15 @@
       <c r="K157" t="n">
         <v>20896</v>
       </c>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="inlineStr"/>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6138,9 +7712,15 @@
       <c r="K158" t="n">
         <v>16744</v>
       </c>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="inlineStr"/>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6178,9 +7758,15 @@
       <c r="K159" t="n">
         <v>23769</v>
       </c>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="inlineStr"/>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>0</v>
+      </c>
+      <c r="M159" t="n">
+        <v>0</v>
+      </c>
+      <c r="N159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6218,9 +7804,15 @@
       <c r="K160" t="n">
         <v>26492</v>
       </c>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="inlineStr"/>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>0</v>
+      </c>
+      <c r="M160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6258,9 +7850,15 @@
       <c r="K161" t="n">
         <v>31163</v>
       </c>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="inlineStr"/>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M161" t="n">
+        <v>0</v>
+      </c>
+      <c r="N161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6298,9 +7896,15 @@
       <c r="K162" t="n">
         <v>28849</v>
       </c>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="inlineStr"/>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6338,9 +7942,15 @@
       <c r="K163" t="n">
         <v>26890</v>
       </c>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="inlineStr"/>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>0</v>
+      </c>
+      <c r="M163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6378,9 +7988,15 @@
       <c r="K164" t="n">
         <v>20913</v>
       </c>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="inlineStr"/>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>0</v>
+      </c>
+      <c r="M164" t="n">
+        <v>0</v>
+      </c>
+      <c r="N164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6418,9 +8034,15 @@
       <c r="K165" t="n">
         <v>22974</v>
       </c>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="inlineStr"/>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>0</v>
+      </c>
+      <c r="M165" t="n">
+        <v>0</v>
+      </c>
+      <c r="N165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6458,9 +8080,15 @@
       <c r="K166" t="n">
         <v>23990</v>
       </c>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="inlineStr"/>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>0</v>
+      </c>
+      <c r="M166" t="n">
+        <v>0</v>
+      </c>
+      <c r="N166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6498,9 +8126,15 @@
       <c r="K167" t="n">
         <v>26001</v>
       </c>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="inlineStr"/>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>0</v>
+      </c>
+      <c r="M167" t="n">
+        <v>0</v>
+      </c>
+      <c r="N167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6538,9 +8172,15 @@
       <c r="K168" t="n">
         <v>28809</v>
       </c>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="inlineStr"/>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>0</v>
+      </c>
+      <c r="M168" t="n">
+        <v>0</v>
+      </c>
+      <c r="N168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6578,9 +8218,15 @@
       <c r="K169" t="n">
         <v>29904</v>
       </c>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="inlineStr"/>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>0</v>
+      </c>
+      <c r="M169" t="n">
+        <v>0</v>
+      </c>
+      <c r="N169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6618,9 +8264,15 @@
       <c r="K170" t="n">
         <v>26144</v>
       </c>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="inlineStr"/>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>0</v>
+      </c>
+      <c r="M170" t="n">
+        <v>0</v>
+      </c>
+      <c r="N170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6658,9 +8310,15 @@
       <c r="K171" t="n">
         <v>24664</v>
       </c>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="inlineStr"/>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>0</v>
+      </c>
+      <c r="M171" t="n">
+        <v>0</v>
+      </c>
+      <c r="N171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6698,9 +8356,15 @@
       <c r="K172" t="n">
         <v>17334</v>
       </c>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="inlineStr"/>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>0</v>
+      </c>
+      <c r="M172" t="n">
+        <v>0</v>
+      </c>
+      <c r="N172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6738,9 +8402,15 @@
       <c r="K173" t="n">
         <v>27308</v>
       </c>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="inlineStr"/>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>0</v>
+      </c>
+      <c r="M173" t="n">
+        <v>0</v>
+      </c>
+      <c r="N173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6778,9 +8448,15 @@
       <c r="K174" t="n">
         <v>27676</v>
       </c>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="inlineStr"/>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M174" t="n">
+        <v>0</v>
+      </c>
+      <c r="N174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6818,9 +8494,15 @@
       <c r="K175" t="n">
         <v>30033</v>
       </c>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="inlineStr"/>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>0</v>
+      </c>
+      <c r="M175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6858,9 +8540,15 @@
       <c r="K176" t="n">
         <v>33282</v>
       </c>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="inlineStr"/>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>0</v>
+      </c>
+      <c r="M176" t="n">
+        <v>0</v>
+      </c>
+      <c r="N176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6898,9 +8586,15 @@
       <c r="K177" t="n">
         <v>30443</v>
       </c>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="inlineStr"/>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>0</v>
+      </c>
+      <c r="M177" t="n">
+        <v>0</v>
+      </c>
+      <c r="N177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6938,9 +8632,15 @@
       <c r="K178" t="n">
         <v>23021</v>
       </c>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="inlineStr"/>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>0</v>
+      </c>
+      <c r="M178" t="n">
+        <v>0</v>
+      </c>
+      <c r="N178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6978,9 +8678,15 @@
       <c r="K179" t="n">
         <v>19169</v>
       </c>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="inlineStr"/>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>0</v>
+      </c>
+      <c r="M179" t="n">
+        <v>0</v>
+      </c>
+      <c r="N179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7018,9 +8724,15 @@
       <c r="K180" t="n">
         <v>17229</v>
       </c>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="inlineStr"/>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>0</v>
+      </c>
+      <c r="M180" t="n">
+        <v>0</v>
+      </c>
+      <c r="N180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7058,9 +8770,15 @@
       <c r="K181" t="n">
         <v>26181</v>
       </c>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="inlineStr"/>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>0</v>
+      </c>
+      <c r="M181" t="n">
+        <v>0</v>
+      </c>
+      <c r="N181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7098,9 +8816,15 @@
       <c r="K182" t="n">
         <v>25136</v>
       </c>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="inlineStr"/>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>0</v>
+      </c>
+      <c r="M182" t="n">
+        <v>0</v>
+      </c>
+      <c r="N182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7138,9 +8862,15 @@
       <c r="K183" t="n">
         <v>26008</v>
       </c>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="inlineStr"/>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>0</v>
+      </c>
+      <c r="M183" t="n">
+        <v>0</v>
+      </c>
+      <c r="N183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7178,9 +8908,15 @@
       <c r="K184" t="n">
         <v>27771</v>
       </c>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="inlineStr"/>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>0</v>
+      </c>
+      <c r="M184" t="n">
+        <v>0</v>
+      </c>
+      <c r="N184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7218,9 +8954,15 @@
       <c r="K185" t="n">
         <v>22275</v>
       </c>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="inlineStr"/>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>0</v>
+      </c>
+      <c r="M185" t="n">
+        <v>0</v>
+      </c>
+      <c r="N185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7258,9 +9000,15 @@
       <c r="K186" t="n">
         <v>21581</v>
       </c>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="inlineStr"/>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>0</v>
+      </c>
+      <c r="M186" t="n">
+        <v>0</v>
+      </c>
+      <c r="N186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7298,9 +9046,15 @@
       <c r="K187" t="n">
         <v>24572</v>
       </c>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="inlineStr"/>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>0</v>
+      </c>
+      <c r="M187" t="n">
+        <v>0</v>
+      </c>
+      <c r="N187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7338,9 +9092,15 @@
       <c r="K188" t="n">
         <v>29626</v>
       </c>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="inlineStr"/>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>0</v>
+      </c>
+      <c r="M188" t="n">
+        <v>0</v>
+      </c>
+      <c r="N188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7378,9 +9138,15 @@
       <c r="K189" t="n">
         <v>30137</v>
       </c>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="inlineStr"/>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>0</v>
+      </c>
+      <c r="M189" t="n">
+        <v>0</v>
+      </c>
+      <c r="N189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7418,9 +9184,15 @@
       <c r="K190" t="n">
         <v>30436</v>
       </c>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="inlineStr"/>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>0</v>
+      </c>
+      <c r="M190" t="n">
+        <v>0</v>
+      </c>
+      <c r="N190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7458,9 +9230,15 @@
       <c r="K191" t="n">
         <v>23813</v>
       </c>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="inlineStr"/>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>0</v>
+      </c>
+      <c r="M191" t="n">
+        <v>0</v>
+      </c>
+      <c r="N191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7498,9 +9276,15 @@
       <c r="K192" t="n">
         <v>25567</v>
       </c>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="inlineStr"/>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>0</v>
+      </c>
+      <c r="M192" t="n">
+        <v>0</v>
+      </c>
+      <c r="N192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7538,9 +9322,15 @@
       <c r="K193" t="n">
         <v>23067</v>
       </c>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="inlineStr"/>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>0</v>
+      </c>
+      <c r="M193" t="n">
+        <v>0</v>
+      </c>
+      <c r="N193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7578,9 +9368,15 @@
       <c r="K194" t="n">
         <v>25642</v>
       </c>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="inlineStr"/>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>0</v>
+      </c>
+      <c r="M194" t="n">
+        <v>0</v>
+      </c>
+      <c r="N194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7618,9 +9414,15 @@
       <c r="K195" t="n">
         <v>25917</v>
       </c>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="inlineStr"/>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>0</v>
+      </c>
+      <c r="M195" t="n">
+        <v>0</v>
+      </c>
+      <c r="N195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7658,9 +9460,15 @@
       <c r="K196" t="n">
         <v>28073</v>
       </c>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="inlineStr"/>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>0</v>
+      </c>
+      <c r="M196" t="n">
+        <v>0</v>
+      </c>
+      <c r="N196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7698,9 +9506,15 @@
       <c r="K197" t="n">
         <v>28656</v>
       </c>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="inlineStr"/>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>0</v>
+      </c>
+      <c r="M197" t="n">
+        <v>0</v>
+      </c>
+      <c r="N197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7738,9 +9552,15 @@
       <c r="K198" t="n">
         <v>23384</v>
       </c>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="inlineStr"/>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>0</v>
+      </c>
+      <c r="M198" t="n">
+        <v>0</v>
+      </c>
+      <c r="N198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7778,9 +9598,15 @@
       <c r="K199" t="n">
         <v>18790</v>
       </c>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="inlineStr"/>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>0</v>
+      </c>
+      <c r="M199" t="n">
+        <v>0</v>
+      </c>
+      <c r="N199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7818,9 +9644,15 @@
       <c r="K200" t="n">
         <v>20013</v>
       </c>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="inlineStr"/>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>0</v>
+      </c>
+      <c r="M200" t="n">
+        <v>0</v>
+      </c>
+      <c r="N200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7858,9 +9690,15 @@
       <c r="K201" t="n">
         <v>21960</v>
       </c>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="inlineStr"/>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>0</v>
+      </c>
+      <c r="M201" t="n">
+        <v>0</v>
+      </c>
+      <c r="N201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7898,9 +9736,15 @@
       <c r="K202" t="n">
         <v>28625</v>
       </c>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="inlineStr"/>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>0</v>
+      </c>
+      <c r="M202" t="n">
+        <v>0</v>
+      </c>
+      <c r="N202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7938,9 +9782,15 @@
       <c r="K203" t="n">
         <v>31823</v>
       </c>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="inlineStr"/>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>0</v>
+      </c>
+      <c r="M203" t="n">
+        <v>0</v>
+      </c>
+      <c r="N203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7978,9 +9828,15 @@
       <c r="K204" t="n">
         <v>32106</v>
       </c>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="inlineStr"/>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>0</v>
+      </c>
+      <c r="M204" t="n">
+        <v>0</v>
+      </c>
+      <c r="N204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8018,9 +9874,15 @@
       <c r="K205" t="n">
         <v>24970</v>
       </c>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="inlineStr"/>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>0</v>
+      </c>
+      <c r="M205" t="n">
+        <v>0</v>
+      </c>
+      <c r="N205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8058,9 +9920,15 @@
       <c r="K206" t="n">
         <v>25098</v>
       </c>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="inlineStr"/>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>0</v>
+      </c>
+      <c r="M206" t="n">
+        <v>0</v>
+      </c>
+      <c r="N206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8098,9 +9966,15 @@
       <c r="K207" t="n">
         <v>23545</v>
       </c>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="inlineStr"/>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>0</v>
+      </c>
+      <c r="M207" t="n">
+        <v>0</v>
+      </c>
+      <c r="N207" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8138,9 +10012,15 @@
       <c r="K208" t="n">
         <v>24004</v>
       </c>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="inlineStr"/>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>0</v>
+      </c>
+      <c r="M208" t="n">
+        <v>0</v>
+      </c>
+      <c r="N208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8178,9 +10058,15 @@
       <c r="K209" t="n">
         <v>26298</v>
       </c>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="inlineStr"/>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>0</v>
+      </c>
+      <c r="M209" t="n">
+        <v>0</v>
+      </c>
+      <c r="N209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8218,9 +10104,15 @@
       <c r="K210" t="n">
         <v>28591</v>
       </c>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="inlineStr"/>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>0</v>
+      </c>
+      <c r="M210" t="n">
+        <v>0</v>
+      </c>
+      <c r="N210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8258,9 +10150,15 @@
       <c r="K211" t="n">
         <v>28672</v>
       </c>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="inlineStr"/>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>0</v>
+      </c>
+      <c r="M211" t="n">
+        <v>0</v>
+      </c>
+      <c r="N211" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8298,9 +10196,15 @@
       <c r="K212" t="n">
         <v>28955</v>
       </c>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="inlineStr"/>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>0</v>
+      </c>
+      <c r="M212" t="n">
+        <v>0</v>
+      </c>
+      <c r="N212" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8338,9 +10242,15 @@
       <c r="K213" t="n">
         <v>23725</v>
       </c>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="inlineStr"/>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>0</v>
+      </c>
+      <c r="M213" t="n">
+        <v>0</v>
+      </c>
+      <c r="N213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8378,9 +10288,15 @@
       <c r="K214" t="n">
         <v>20929</v>
       </c>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="inlineStr"/>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>0</v>
+      </c>
+      <c r="M214" t="n">
+        <v>0</v>
+      </c>
+      <c r="N214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8418,9 +10334,15 @@
       <c r="K215" t="n">
         <v>17605</v>
       </c>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="inlineStr"/>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>0</v>
+      </c>
+      <c r="M215" t="n">
+        <v>0</v>
+      </c>
+      <c r="N215" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8458,9 +10380,15 @@
       <c r="K216" t="n">
         <v>24669</v>
       </c>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="inlineStr"/>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>0</v>
+      </c>
+      <c r="M216" t="n">
+        <v>0</v>
+      </c>
+      <c r="N216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8498,9 +10426,15 @@
       <c r="K217" t="n">
         <v>32501</v>
       </c>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="inlineStr"/>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>0</v>
+      </c>
+      <c r="M217" t="n">
+        <v>0</v>
+      </c>
+      <c r="N217" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8538,9 +10472,15 @@
       <c r="K218" t="n">
         <v>35618</v>
       </c>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="inlineStr"/>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>0</v>
+      </c>
+      <c r="M218" t="n">
+        <v>0</v>
+      </c>
+      <c r="N218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8578,9 +10518,15 @@
       <c r="K219" t="n">
         <v>31143</v>
       </c>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="inlineStr"/>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>0</v>
+      </c>
+      <c r="M219" t="n">
+        <v>0</v>
+      </c>
+      <c r="N219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8618,9 +10564,15 @@
       <c r="K220" t="n">
         <v>29540</v>
       </c>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="inlineStr"/>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>0</v>
+      </c>
+      <c r="M220" t="n">
+        <v>0</v>
+      </c>
+      <c r="N220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8658,9 +10610,15 @@
       <c r="K221" t="n">
         <v>27664</v>
       </c>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="inlineStr"/>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>0</v>
+      </c>
+      <c r="M221" t="n">
+        <v>0</v>
+      </c>
+      <c r="N221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8698,9 +10656,15 @@
       <c r="K222" t="n">
         <v>28761</v>
       </c>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="inlineStr"/>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>0</v>
+      </c>
+      <c r="M222" t="n">
+        <v>0</v>
+      </c>
+      <c r="N222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8738,9 +10702,15 @@
       <c r="K223" t="n">
         <v>35134</v>
       </c>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="inlineStr"/>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>0</v>
+      </c>
+      <c r="M223" t="n">
+        <v>0</v>
+      </c>
+      <c r="N223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8778,9 +10748,15 @@
       <c r="K224" t="n">
         <v>35826</v>
       </c>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="inlineStr"/>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>0</v>
+      </c>
+      <c r="M224" t="n">
+        <v>0</v>
+      </c>
+      <c r="N224" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8818,9 +10794,15 @@
       <c r="K225" t="n">
         <v>38940</v>
       </c>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="inlineStr"/>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>0</v>
+      </c>
+      <c r="M225" t="n">
+        <v>0</v>
+      </c>
+      <c r="N225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8858,9 +10840,15 @@
       <c r="K226" t="n">
         <v>40127</v>
       </c>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="inlineStr"/>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>0</v>
+      </c>
+      <c r="M226" t="n">
+        <v>0</v>
+      </c>
+      <c r="N226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8898,9 +10886,15 @@
       <c r="K227" t="n">
         <v>31753</v>
       </c>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="inlineStr"/>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>0</v>
+      </c>
+      <c r="M227" t="n">
+        <v>0</v>
+      </c>
+      <c r="N227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8938,9 +10932,15 @@
       <c r="K228" t="n">
         <v>34201</v>
       </c>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="inlineStr"/>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>0</v>
+      </c>
+      <c r="M228" t="n">
+        <v>0</v>
+      </c>
+      <c r="N228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8978,9 +10978,15 @@
       <c r="K229" t="n">
         <v>35436</v>
       </c>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="inlineStr"/>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>0</v>
+      </c>
+      <c r="M229" t="n">
+        <v>0</v>
+      </c>
+      <c r="N229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9018,9 +11024,15 @@
       <c r="K230" t="n">
         <v>30634</v>
       </c>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="inlineStr"/>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>0</v>
+      </c>
+      <c r="M230" t="n">
+        <v>0</v>
+      </c>
+      <c r="N230" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9058,9 +11070,15 @@
       <c r="K231" t="n">
         <v>41865</v>
       </c>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="inlineStr"/>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>0</v>
+      </c>
+      <c r="M231" t="n">
+        <v>0</v>
+      </c>
+      <c r="N231" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9098,9 +11116,15 @@
       <c r="K232" t="n">
         <v>43238</v>
       </c>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="inlineStr"/>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>0</v>
+      </c>
+      <c r="M232" t="n">
+        <v>0</v>
+      </c>
+      <c r="N232" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9138,9 +11162,15 @@
       <c r="K233" t="n">
         <v>42509</v>
       </c>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="inlineStr"/>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>0</v>
+      </c>
+      <c r="M233" t="n">
+        <v>0</v>
+      </c>
+      <c r="N233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9178,9 +11208,15 @@
       <c r="K234" t="n">
         <v>41111</v>
       </c>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="inlineStr"/>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>0</v>
+      </c>
+      <c r="M234" t="n">
+        <v>0</v>
+      </c>
+      <c r="N234" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9218,9 +11254,15 @@
       <c r="K235" t="n">
         <v>38375</v>
       </c>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="inlineStr"/>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>0</v>
+      </c>
+      <c r="M235" t="n">
+        <v>0</v>
+      </c>
+      <c r="N235" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9258,9 +11300,15 @@
       <c r="K236" t="n">
         <v>35753</v>
       </c>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="inlineStr"/>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>0</v>
+      </c>
+      <c r="M236" t="n">
+        <v>0</v>
+      </c>
+      <c r="N236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9298,9 +11346,15 @@
       <c r="K237" t="n">
         <v>39646</v>
       </c>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="inlineStr"/>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>0</v>
+      </c>
+      <c r="M237" t="n">
+        <v>0</v>
+      </c>
+      <c r="N237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9338,9 +11392,15 @@
       <c r="K238" t="n">
         <v>40093</v>
       </c>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="inlineStr"/>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>0</v>
+      </c>
+      <c r="M238" t="n">
+        <v>0</v>
+      </c>
+      <c r="N238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9378,9 +11438,15 @@
       <c r="K239" t="n">
         <v>46254</v>
       </c>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="inlineStr"/>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>0</v>
+      </c>
+      <c r="M239" t="n">
+        <v>0</v>
+      </c>
+      <c r="N239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9418,9 +11484,15 @@
       <c r="K240" t="n">
         <v>39661</v>
       </c>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="inlineStr"/>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>0</v>
+      </c>
+      <c r="M240" t="n">
+        <v>0</v>
+      </c>
+      <c r="N240" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9458,9 +11530,15 @@
       <c r="K241" t="n">
         <v>38196</v>
       </c>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="inlineStr"/>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>0</v>
+      </c>
+      <c r="M241" t="n">
+        <v>0</v>
+      </c>
+      <c r="N241" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9498,9 +11576,15 @@
       <c r="K242" t="n">
         <v>42031</v>
       </c>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="inlineStr"/>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>0</v>
+      </c>
+      <c r="M242" t="n">
+        <v>0</v>
+      </c>
+      <c r="N242" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9538,9 +11622,15 @@
       <c r="K243" t="n">
         <v>43277</v>
       </c>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="inlineStr"/>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>0</v>
+      </c>
+      <c r="M243" t="n">
+        <v>0</v>
+      </c>
+      <c r="N243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9578,9 +11668,15 @@
       <c r="K244" t="n">
         <v>48488</v>
       </c>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="inlineStr"/>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>0</v>
+      </c>
+      <c r="M244" t="n">
+        <v>0</v>
+      </c>
+      <c r="N244" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9618,9 +11714,15 @@
       <c r="K245" t="n">
         <v>44914</v>
       </c>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="inlineStr"/>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>0</v>
+      </c>
+      <c r="M245" t="n">
+        <v>0</v>
+      </c>
+      <c r="N245" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9658,9 +11760,15 @@
       <c r="K246" t="n">
         <v>44298</v>
       </c>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="inlineStr"/>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>0</v>
+      </c>
+      <c r="M246" t="n">
+        <v>0</v>
+      </c>
+      <c r="N246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9698,9 +11806,15 @@
       <c r="K247" t="n">
         <v>44138</v>
       </c>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="inlineStr"/>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>0</v>
+      </c>
+      <c r="M247" t="n">
+        <v>0</v>
+      </c>
+      <c r="N247" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9738,9 +11852,15 @@
       <c r="K248" t="n">
         <v>36473</v>
       </c>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="inlineStr"/>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>0</v>
+      </c>
+      <c r="M248" t="n">
+        <v>0</v>
+      </c>
+      <c r="N248" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9778,9 +11898,15 @@
       <c r="K249" t="n">
         <v>31233</v>
       </c>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="inlineStr"/>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>0</v>
+      </c>
+      <c r="M249" t="n">
+        <v>0</v>
+      </c>
+      <c r="N249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9818,9 +11944,15 @@
       <c r="K250" t="n">
         <v>32206</v>
       </c>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="inlineStr"/>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>0</v>
+      </c>
+      <c r="M250" t="n">
+        <v>0</v>
+      </c>
+      <c r="N250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9858,9 +11990,15 @@
       <c r="K251" t="n">
         <v>39961</v>
       </c>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="inlineStr"/>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>0</v>
+      </c>
+      <c r="M251" t="n">
+        <v>0</v>
+      </c>
+      <c r="N251" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9898,9 +12036,15 @@
       <c r="K252" t="n">
         <v>38507</v>
       </c>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="inlineStr"/>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>0</v>
+      </c>
+      <c r="M252" t="n">
+        <v>0</v>
+      </c>
+      <c r="N252" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9938,9 +12082,15 @@
       <c r="K253" t="n">
         <v>44722</v>
       </c>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="inlineStr"/>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>0</v>
+      </c>
+      <c r="M253" t="n">
+        <v>0</v>
+      </c>
+      <c r="N253" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9978,9 +12128,15 @@
       <c r="K254" t="n">
         <v>40850</v>
       </c>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="inlineStr"/>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>0</v>
+      </c>
+      <c r="M254" t="n">
+        <v>0</v>
+      </c>
+      <c r="N254" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10018,9 +12174,15 @@
       <c r="K255" t="n">
         <v>31864</v>
       </c>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="inlineStr"/>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>0</v>
+      </c>
+      <c r="M255" t="n">
+        <v>0</v>
+      </c>
+      <c r="N255" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10058,9 +12220,15 @@
       <c r="K256" t="n">
         <v>24049</v>
       </c>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="inlineStr"/>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>0</v>
+      </c>
+      <c r="M256" t="n">
+        <v>0</v>
+      </c>
+      <c r="N256" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10098,9 +12266,15 @@
       <c r="K257" t="n">
         <v>32646</v>
       </c>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="inlineStr"/>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>0</v>
+      </c>
+      <c r="M257" t="n">
+        <v>0</v>
+      </c>
+      <c r="N257" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10138,9 +12312,15 @@
       <c r="K258" t="n">
         <v>38860</v>
       </c>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="inlineStr"/>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>0</v>
+      </c>
+      <c r="M258" t="n">
+        <v>0</v>
+      </c>
+      <c r="N258" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10178,9 +12358,15 @@
       <c r="K259" t="n">
         <v>40019</v>
       </c>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="inlineStr"/>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>0</v>
+      </c>
+      <c r="M259" t="n">
+        <v>0</v>
+      </c>
+      <c r="N259" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10218,9 +12404,15 @@
       <c r="K260" t="n">
         <v>44151</v>
       </c>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="inlineStr"/>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>0</v>
+      </c>
+      <c r="M260" t="n">
+        <v>0</v>
+      </c>
+      <c r="N260" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10258,9 +12450,15 @@
       <c r="K261" t="n">
         <v>38769</v>
       </c>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="inlineStr"/>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>0</v>
+      </c>
+      <c r="M261" t="n">
+        <v>0</v>
+      </c>
+      <c r="N261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10298,9 +12496,15 @@
       <c r="K262" t="n">
         <v>28652</v>
       </c>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="inlineStr"/>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>0</v>
+      </c>
+      <c r="M262" t="n">
+        <v>0</v>
+      </c>
+      <c r="N262" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10338,9 +12542,15 @@
       <c r="K263" t="n">
         <v>23945</v>
       </c>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="inlineStr"/>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>0</v>
+      </c>
+      <c r="M263" t="n">
+        <v>0</v>
+      </c>
+      <c r="N263" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10378,9 +12588,15 @@
       <c r="K264" t="n">
         <v>30010</v>
       </c>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="inlineStr"/>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>0</v>
+      </c>
+      <c r="M264" t="n">
+        <v>0</v>
+      </c>
+      <c r="N264" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10418,9 +12634,15 @@
       <c r="K265" t="n">
         <v>35621</v>
       </c>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="inlineStr"/>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>0</v>
+      </c>
+      <c r="M265" t="n">
+        <v>0</v>
+      </c>
+      <c r="N265" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10458,9 +12680,15 @@
       <c r="K266" t="n">
         <v>41008</v>
       </c>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="inlineStr"/>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>0</v>
+      </c>
+      <c r="M266" t="n">
+        <v>0</v>
+      </c>
+      <c r="N266" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10498,9 +12726,15 @@
       <c r="K267" t="n">
         <v>41920</v>
       </c>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="inlineStr"/>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>0</v>
+      </c>
+      <c r="M267" t="n">
+        <v>0</v>
+      </c>
+      <c r="N267" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10538,9 +12772,15 @@
       <c r="K268" t="n">
         <v>37133</v>
       </c>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="inlineStr"/>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>0</v>
+      </c>
+      <c r="M268" t="n">
+        <v>0</v>
+      </c>
+      <c r="N268" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10578,9 +12818,15 @@
       <c r="K269" t="n">
         <v>27908</v>
       </c>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="inlineStr"/>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>0</v>
+      </c>
+      <c r="M269" t="n">
+        <v>0</v>
+      </c>
+      <c r="N269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10618,9 +12864,15 @@
       <c r="K270" t="n">
         <v>25279</v>
       </c>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="inlineStr"/>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>0</v>
+      </c>
+      <c r="M270" t="n">
+        <v>0</v>
+      </c>
+      <c r="N270" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10658,9 +12910,15 @@
       <c r="K271" t="n">
         <v>28567</v>
       </c>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="inlineStr"/>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>0</v>
+      </c>
+      <c r="M271" t="n">
+        <v>0</v>
+      </c>
+      <c r="N271" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10698,9 +12956,15 @@
       <c r="K272" t="n">
         <v>35754</v>
       </c>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="inlineStr"/>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>0</v>
+      </c>
+      <c r="M272" t="n">
+        <v>0</v>
+      </c>
+      <c r="N272" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10738,9 +13002,15 @@
       <c r="K273" t="n">
         <v>41268</v>
       </c>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="inlineStr"/>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>0</v>
+      </c>
+      <c r="M273" t="n">
+        <v>0</v>
+      </c>
+      <c r="N273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10778,9 +13048,15 @@
       <c r="K274" t="n">
         <v>39165</v>
       </c>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="inlineStr"/>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>0</v>
+      </c>
+      <c r="M274" t="n">
+        <v>0</v>
+      </c>
+      <c r="N274" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10818,9 +13094,15 @@
       <c r="K275" t="n">
         <v>37577</v>
       </c>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="inlineStr"/>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>0</v>
+      </c>
+      <c r="M275" t="n">
+        <v>0</v>
+      </c>
+      <c r="N275" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10858,9 +13140,15 @@
       <c r="K276" t="n">
         <v>28401</v>
       </c>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="inlineStr"/>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>0</v>
+      </c>
+      <c r="M276" t="n">
+        <v>0</v>
+      </c>
+      <c r="N276" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10898,9 +13186,15 @@
       <c r="K277" t="n">
         <v>29125</v>
       </c>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="inlineStr"/>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>0</v>
+      </c>
+      <c r="M277" t="n">
+        <v>0</v>
+      </c>
+      <c r="N277" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10938,9 +13232,15 @@
       <c r="K278" t="n">
         <v>36707</v>
       </c>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="inlineStr"/>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>0</v>
+      </c>
+      <c r="M278" t="n">
+        <v>0</v>
+      </c>
+      <c r="N278" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10978,9 +13278,15 @@
       <c r="K279" t="n">
         <v>39559</v>
       </c>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="inlineStr"/>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>0</v>
+      </c>
+      <c r="M279" t="n">
+        <v>0</v>
+      </c>
+      <c r="N279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -11018,9 +13324,15 @@
       <c r="K280" t="n">
         <v>40509</v>
       </c>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="inlineStr"/>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>0</v>
+      </c>
+      <c r="M280" t="n">
+        <v>0</v>
+      </c>
+      <c r="N280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -11058,9 +13370,15 @@
       <c r="K281" t="n">
         <v>44837</v>
       </c>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="inlineStr"/>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>0</v>
+      </c>
+      <c r="M281" t="n">
+        <v>0</v>
+      </c>
+      <c r="N281" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -11098,9 +13416,15 @@
       <c r="K282" t="n">
         <v>42206</v>
       </c>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="inlineStr"/>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>0</v>
+      </c>
+      <c r="M282" t="n">
+        <v>0</v>
+      </c>
+      <c r="N282" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -11138,9 +13462,15 @@
       <c r="K283" t="n">
         <v>33351</v>
       </c>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="inlineStr"/>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>0</v>
+      </c>
+      <c r="M283" t="n">
+        <v>0</v>
+      </c>
+      <c r="N283" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -11178,9 +13508,15 @@
       <c r="K284" t="n">
         <v>26468</v>
       </c>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="inlineStr"/>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>0</v>
+      </c>
+      <c r="M284" t="n">
+        <v>0</v>
+      </c>
+      <c r="N284" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -11218,9 +13554,15 @@
       <c r="K285" t="n">
         <v>33440</v>
       </c>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="inlineStr"/>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>0</v>
+      </c>
+      <c r="M285" t="n">
+        <v>0</v>
+      </c>
+      <c r="N285" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -11258,9 +13600,15 @@
       <c r="K286" t="n">
         <v>41838</v>
       </c>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="inlineStr"/>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>0</v>
+      </c>
+      <c r="M286" t="n">
+        <v>0</v>
+      </c>
+      <c r="N286" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11298,9 +13646,15 @@
       <c r="K287" t="n">
         <v>48173</v>
       </c>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="inlineStr"/>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>0</v>
+      </c>
+      <c r="M287" t="n">
+        <v>0</v>
+      </c>
+      <c r="N287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11338,9 +13692,15 @@
       <c r="K288" t="n">
         <v>46671</v>
       </c>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="inlineStr"/>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>0</v>
+      </c>
+      <c r="M288" t="n">
+        <v>0</v>
+      </c>
+      <c r="N288" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11378,9 +13738,15 @@
       <c r="K289" t="n">
         <v>46389</v>
       </c>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="inlineStr"/>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>0</v>
+      </c>
+      <c r="M289" t="n">
+        <v>0</v>
+      </c>
+      <c r="N289" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11418,9 +13784,15 @@
       <c r="K290" t="n">
         <v>37471</v>
       </c>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="inlineStr"/>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>0</v>
+      </c>
+      <c r="M290" t="n">
+        <v>0</v>
+      </c>
+      <c r="N290" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11458,9 +13830,15 @@
       <c r="K291" t="n">
         <v>27053</v>
       </c>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="inlineStr"/>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>0</v>
+      </c>
+      <c r="M291" t="n">
+        <v>0</v>
+      </c>
+      <c r="N291" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11498,9 +13876,15 @@
       <c r="K292" t="n">
         <v>36076</v>
       </c>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="inlineStr"/>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>0</v>
+      </c>
+      <c r="M292" t="n">
+        <v>0</v>
+      </c>
+      <c r="N292" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11538,9 +13922,15 @@
       <c r="K293" t="n">
         <v>47576</v>
       </c>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="inlineStr"/>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>0</v>
+      </c>
+      <c r="M293" t="n">
+        <v>0</v>
+      </c>
+      <c r="N293" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11578,9 +13968,15 @@
       <c r="K294" t="n">
         <v>58037</v>
       </c>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="inlineStr"/>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>0</v>
+      </c>
+      <c r="M294" t="n">
+        <v>0</v>
+      </c>
+      <c r="N294" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11618,9 +14014,15 @@
       <c r="K295" t="n">
         <v>55086</v>
       </c>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="inlineStr"/>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>0</v>
+      </c>
+      <c r="M295" t="n">
+        <v>0</v>
+      </c>
+      <c r="N295" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11658,9 +14060,15 @@
       <c r="K296" t="n">
         <v>53959</v>
       </c>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="inlineStr"/>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>0</v>
+      </c>
+      <c r="M296" t="n">
+        <v>0</v>
+      </c>
+      <c r="N296" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11698,9 +14106,15 @@
       <c r="K297" t="n">
         <v>39406</v>
       </c>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="inlineStr"/>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>0</v>
+      </c>
+      <c r="M297" t="n">
+        <v>0</v>
+      </c>
+      <c r="N297" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11738,9 +14152,15 @@
       <c r="K298" t="n">
         <v>34640</v>
       </c>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="inlineStr"/>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>0</v>
+      </c>
+      <c r="M298" t="n">
+        <v>0</v>
+      </c>
+      <c r="N298" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11778,9 +14198,15 @@
       <c r="K299" t="n">
         <v>44226</v>
       </c>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="inlineStr"/>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>0</v>
+      </c>
+      <c r="M299" t="n">
+        <v>0</v>
+      </c>
+      <c r="N299" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11818,9 +14244,15 @@
       <c r="K300" t="n">
         <v>52873</v>
       </c>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="inlineStr"/>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>0</v>
+      </c>
+      <c r="M300" t="n">
+        <v>0</v>
+      </c>
+      <c r="N300" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11858,9 +14290,15 @@
       <c r="K301" t="n">
         <v>56001</v>
       </c>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="inlineStr"/>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>0</v>
+      </c>
+      <c r="M301" t="n">
+        <v>0</v>
+      </c>
+      <c r="N301" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11898,9 +14336,15 @@
       <c r="K302" t="n">
         <v>59399</v>
       </c>
-      <c r="L302" t="inlineStr"/>
-      <c r="M302" t="inlineStr"/>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>0</v>
+      </c>
+      <c r="M302" t="n">
+        <v>0</v>
+      </c>
+      <c r="N302" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11938,9 +14382,15 @@
       <c r="K303" t="n">
         <v>59251</v>
       </c>
-      <c r="L303" t="inlineStr"/>
-      <c r="M303" t="inlineStr"/>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>0</v>
+      </c>
+      <c r="M303" t="n">
+        <v>0</v>
+      </c>
+      <c r="N303" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11978,9 +14428,15 @@
       <c r="K304" t="n">
         <v>45283</v>
       </c>
-      <c r="L304" t="inlineStr"/>
-      <c r="M304" t="inlineStr"/>
-      <c r="N304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>0</v>
+      </c>
+      <c r="M304" t="n">
+        <v>0</v>
+      </c>
+      <c r="N304" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -12018,9 +14474,15 @@
       <c r="K305" t="n">
         <v>39198</v>
       </c>
-      <c r="L305" t="inlineStr"/>
-      <c r="M305" t="inlineStr"/>
-      <c r="N305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>0</v>
+      </c>
+      <c r="M305" t="n">
+        <v>0</v>
+      </c>
+      <c r="N305" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -12058,9 +14520,15 @@
       <c r="K306" t="n">
         <v>48546</v>
       </c>
-      <c r="L306" t="inlineStr"/>
-      <c r="M306" t="inlineStr"/>
-      <c r="N306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>0</v>
+      </c>
+      <c r="M306" t="n">
+        <v>0</v>
+      </c>
+      <c r="N306" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -12098,9 +14566,15 @@
       <c r="K307" t="n">
         <v>61809</v>
       </c>
-      <c r="L307" t="inlineStr"/>
-      <c r="M307" t="inlineStr"/>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>0</v>
+      </c>
+      <c r="M307" t="n">
+        <v>0</v>
+      </c>
+      <c r="N307" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -12138,9 +14612,15 @@
       <c r="K308" t="n">
         <v>63051</v>
       </c>
-      <c r="L308" t="inlineStr"/>
-      <c r="M308" t="inlineStr"/>
-      <c r="N308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>0</v>
+      </c>
+      <c r="M308" t="n">
+        <v>0</v>
+      </c>
+      <c r="N308" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -12178,9 +14658,15 @@
       <c r="K309" t="n">
         <v>65260</v>
       </c>
-      <c r="L309" t="inlineStr"/>
-      <c r="M309" t="inlineStr"/>
-      <c r="N309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>0</v>
+      </c>
+      <c r="M309" t="n">
+        <v>0</v>
+      </c>
+      <c r="N309" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -12218,9 +14704,15 @@
       <c r="K310" t="n">
         <v>58190</v>
       </c>
-      <c r="L310" t="inlineStr"/>
-      <c r="M310" t="inlineStr"/>
-      <c r="N310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>0</v>
+      </c>
+      <c r="M310" t="n">
+        <v>0</v>
+      </c>
+      <c r="N310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -12258,9 +14750,15 @@
       <c r="K311" t="n">
         <v>57091</v>
       </c>
-      <c r="L311" t="inlineStr"/>
-      <c r="M311" t="inlineStr"/>
-      <c r="N311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>0</v>
+      </c>
+      <c r="M311" t="n">
+        <v>0</v>
+      </c>
+      <c r="N311" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -12298,9 +14796,15 @@
       <c r="K312" t="n">
         <v>39566</v>
       </c>
-      <c r="L312" t="inlineStr"/>
-      <c r="M312" t="inlineStr"/>
-      <c r="N312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>0</v>
+      </c>
+      <c r="M312" t="n">
+        <v>0</v>
+      </c>
+      <c r="N312" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -12338,9 +14842,15 @@
       <c r="K313" t="n">
         <v>49189</v>
       </c>
-      <c r="L313" t="inlineStr"/>
-      <c r="M313" t="inlineStr"/>
-      <c r="N313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>0</v>
+      </c>
+      <c r="M313" t="n">
+        <v>0</v>
+      </c>
+      <c r="N313" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -12378,9 +14888,15 @@
       <c r="K314" t="n">
         <v>58178</v>
       </c>
-      <c r="L314" t="inlineStr"/>
-      <c r="M314" t="inlineStr"/>
-      <c r="N314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>0</v>
+      </c>
+      <c r="M314" t="n">
+        <v>0</v>
+      </c>
+      <c r="N314" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -12418,9 +14934,15 @@
       <c r="K315" t="n">
         <v>68246</v>
       </c>
-      <c r="L315" t="inlineStr"/>
-      <c r="M315" t="inlineStr"/>
-      <c r="N315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>0</v>
+      </c>
+      <c r="M315" t="n">
+        <v>0</v>
+      </c>
+      <c r="N315" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -12458,9 +14980,15 @@
       <c r="K316" t="n">
         <v>67207</v>
       </c>
-      <c r="L316" t="inlineStr"/>
-      <c r="M316" t="inlineStr"/>
-      <c r="N316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>0</v>
+      </c>
+      <c r="M316" t="n">
+        <v>0</v>
+      </c>
+      <c r="N316" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -12498,9 +15026,15 @@
       <c r="K317" t="n">
         <v>69412</v>
       </c>
-      <c r="L317" t="inlineStr"/>
-      <c r="M317" t="inlineStr"/>
-      <c r="N317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>0</v>
+      </c>
+      <c r="M317" t="n">
+        <v>0</v>
+      </c>
+      <c r="N317" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -12538,9 +15072,15 @@
       <c r="K318" t="n">
         <v>54505</v>
       </c>
-      <c r="L318" t="inlineStr"/>
-      <c r="M318" t="inlineStr"/>
-      <c r="N318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>0</v>
+      </c>
+      <c r="M318" t="n">
+        <v>0</v>
+      </c>
+      <c r="N318" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -12578,9 +15118,15 @@
       <c r="K319" t="n">
         <v>45265</v>
       </c>
-      <c r="L319" t="inlineStr"/>
-      <c r="M319" t="inlineStr"/>
-      <c r="N319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>0</v>
+      </c>
+      <c r="M319" t="n">
+        <v>0</v>
+      </c>
+      <c r="N319" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -12618,9 +15164,15 @@
       <c r="K320" t="n">
         <v>56660</v>
       </c>
-      <c r="L320" t="inlineStr"/>
-      <c r="M320" t="inlineStr"/>
-      <c r="N320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>0</v>
+      </c>
+      <c r="M320" t="n">
+        <v>0</v>
+      </c>
+      <c r="N320" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -12658,11 +15210,15 @@
       <c r="K321" t="n">
         <v>64592</v>
       </c>
-      <c r="L321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>0</v>
+      </c>
       <c r="M321" t="n">
         <v>10756</v>
       </c>
-      <c r="N321" t="inlineStr"/>
+      <c r="N321" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -12706,7 +15262,9 @@
       <c r="M322" t="n">
         <v>18603</v>
       </c>
-      <c r="N322" t="inlineStr"/>
+      <c r="N322" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -12750,7 +15308,9 @@
       <c r="M323" t="n">
         <v>23502</v>
       </c>
-      <c r="N323" t="inlineStr"/>
+      <c r="N323" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -12794,7 +15354,9 @@
       <c r="M324" t="n">
         <v>28887</v>
       </c>
-      <c r="N324" t="inlineStr"/>
+      <c r="N324" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -12838,7 +15400,9 @@
       <c r="M325" t="n">
         <v>33191</v>
       </c>
-      <c r="N325" t="inlineStr"/>
+      <c r="N325" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -12882,7 +15446,9 @@
       <c r="M326" t="n">
         <v>37551</v>
       </c>
-      <c r="N326" t="inlineStr"/>
+      <c r="N326" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -12926,7 +15492,9 @@
       <c r="M327" t="n">
         <v>42419</v>
       </c>
-      <c r="N327" t="inlineStr"/>
+      <c r="N327" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -12970,7 +15538,9 @@
       <c r="M328" t="n">
         <v>50030</v>
       </c>
-      <c r="N328" t="inlineStr"/>
+      <c r="N328" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -18988,9 +21558,15 @@
       <c r="K459" t="n">
         <v>28109</v>
       </c>
-      <c r="L459" t="inlineStr"/>
-      <c r="M459" t="inlineStr"/>
-      <c r="N459" t="inlineStr"/>
+      <c r="L459" t="n">
+        <v>0</v>
+      </c>
+      <c r="M459" t="n">
+        <v>0</v>
+      </c>
+      <c r="N459" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" s="1" t="n">
@@ -19019,16 +21595,24 @@
       <c r="H460" t="n">
         <v>1673</v>
       </c>
-      <c r="I460" t="inlineStr"/>
+      <c r="I460" t="n">
+        <v>0</v>
+      </c>
       <c r="J460" t="n">
         <v>6.4</v>
       </c>
       <c r="K460" t="n">
         <v>45681</v>
       </c>
-      <c r="L460" t="inlineStr"/>
-      <c r="M460" t="inlineStr"/>
-      <c r="N460" t="inlineStr"/>
+      <c r="L460" t="n">
+        <v>0</v>
+      </c>
+      <c r="M460" t="n">
+        <v>0</v>
+      </c>
+      <c r="N460" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" s="1" t="n">
@@ -19057,16 +21641,24 @@
       <c r="H461" t="n">
         <v>1632</v>
       </c>
-      <c r="I461" t="inlineStr"/>
+      <c r="I461" t="n">
+        <v>0</v>
+      </c>
       <c r="J461" t="n">
         <v>5.7</v>
       </c>
       <c r="K461" t="n">
         <v>47638</v>
       </c>
-      <c r="L461" t="inlineStr"/>
-      <c r="M461" t="inlineStr"/>
-      <c r="N461" t="inlineStr"/>
+      <c r="L461" t="n">
+        <v>0</v>
+      </c>
+      <c r="M461" t="n">
+        <v>0</v>
+      </c>
+      <c r="N461" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" s="1" t="n">
@@ -19095,16 +21687,24 @@
       <c r="H462" t="n">
         <v>1582</v>
       </c>
-      <c r="I462" t="inlineStr"/>
+      <c r="I462" t="n">
+        <v>0</v>
+      </c>
       <c r="J462" t="n">
         <v>6.1</v>
       </c>
       <c r="K462" t="n">
         <v>44040</v>
       </c>
-      <c r="L462" t="inlineStr"/>
-      <c r="M462" t="inlineStr"/>
-      <c r="N462" t="inlineStr"/>
+      <c r="L462" t="n">
+        <v>0</v>
+      </c>
+      <c r="M462" t="n">
+        <v>0</v>
+      </c>
+      <c r="N462" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" s="1" t="n">
@@ -19133,16 +21733,24 @@
       <c r="H463" t="n">
         <v>1546</v>
       </c>
-      <c r="I463" t="inlineStr"/>
+      <c r="I463" t="n">
+        <v>0</v>
+      </c>
       <c r="J463" t="n">
         <v>6.2</v>
       </c>
       <c r="K463" t="n">
         <v>42320</v>
       </c>
-      <c r="L463" t="inlineStr"/>
-      <c r="M463" t="inlineStr"/>
-      <c r="N463" t="inlineStr"/>
+      <c r="L463" t="n">
+        <v>0</v>
+      </c>
+      <c r="M463" t="n">
+        <v>0</v>
+      </c>
+      <c r="N463" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
